--- a/with_new_data/test_see.xlsx
+++ b/with_new_data/test_see.xlsx
@@ -1056,7 +1056,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
         <v>0.2</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="n">
         <v>0.6</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
         <v>0.8</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="n">
         <v>0.8</v>
